--- a/222.xlsx
+++ b/222.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\hnu-gym\HNU_gym automatic reservation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B8460-1F20-487C-B07B-BF046CA808EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D63977D-960B-4820-9C76-0788A7366096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2565" windowWidth="17280" windowHeight="11032" xr2:uid="{76D22EA7-900F-403C-AAD9-EDE6FFD196EC}"/>
+    <workbookView xWindow="3135" yWindow="2385" windowWidth="17153" windowHeight="11032" xr2:uid="{76D22EA7-900F-403C-AAD9-EDE6FFD196EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,10 +455,13 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -497,28 +500,31 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B2">
-        <v>3893</v>
+        <v>4439</v>
       </c>
       <c r="C2">
-        <v>16345</v>
+        <v>20842</v>
       </c>
       <c r="D2">
-        <v>16359</v>
+        <v>20856</v>
       </c>
       <c r="E2">
-        <v>16373</v>
+        <v>20870</v>
       </c>
       <c r="F2">
-        <v>16387</v>
+        <v>20884</v>
       </c>
       <c r="G2">
-        <v>16401</v>
+        <v>20898</v>
       </c>
       <c r="H2">
-        <v>16415</v>
+        <v>20912</v>
       </c>
       <c r="I2">
-        <v>16429</v>
+        <v>20926</v>
+      </c>
+      <c r="J2">
+        <v>20940</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -526,28 +532,31 @@
         <v>0.375</v>
       </c>
       <c r="B3">
-        <v>3894</v>
+        <v>4440</v>
       </c>
       <c r="C3">
-        <v>16344</v>
+        <v>20841</v>
       </c>
       <c r="D3">
-        <v>16358</v>
+        <v>20855</v>
       </c>
       <c r="E3">
-        <v>16372</v>
+        <v>20869</v>
       </c>
       <c r="F3">
-        <v>16386</v>
+        <v>20883</v>
       </c>
       <c r="G3">
-        <v>16400</v>
+        <v>20897</v>
       </c>
       <c r="H3">
-        <v>16414</v>
+        <v>20911</v>
       </c>
       <c r="I3">
-        <v>16428</v>
+        <v>20925</v>
+      </c>
+      <c r="J3">
+        <v>20939</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -555,28 +564,31 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B4">
-        <v>3895</v>
+        <v>4441</v>
       </c>
       <c r="C4">
-        <v>16343</v>
+        <v>20840</v>
       </c>
       <c r="D4">
-        <v>16357</v>
+        <v>20854</v>
       </c>
       <c r="E4">
-        <v>16371</v>
+        <v>20868</v>
       </c>
       <c r="F4">
-        <v>16385</v>
+        <v>20882</v>
       </c>
       <c r="G4">
-        <v>16399</v>
+        <v>20896</v>
       </c>
       <c r="H4">
-        <v>16413</v>
+        <v>20910</v>
       </c>
       <c r="I4">
-        <v>16427</v>
+        <v>20924</v>
+      </c>
+      <c r="J4">
+        <v>20938</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -584,28 +596,31 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B5">
-        <v>3896</v>
+        <v>4442</v>
       </c>
       <c r="C5">
-        <v>16342</v>
+        <v>20839</v>
       </c>
       <c r="D5">
-        <v>16356</v>
+        <v>20853</v>
       </c>
       <c r="E5">
-        <v>16370</v>
+        <v>20867</v>
       </c>
       <c r="F5">
-        <v>16384</v>
+        <v>20881</v>
       </c>
       <c r="G5">
-        <v>16398</v>
+        <v>20895</v>
       </c>
       <c r="H5">
-        <v>16412</v>
+        <v>20909</v>
       </c>
       <c r="I5">
-        <v>16426</v>
+        <v>20923</v>
+      </c>
+      <c r="J5">
+        <v>20937</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -613,28 +628,31 @@
         <v>0.5</v>
       </c>
       <c r="B6">
-        <v>3897</v>
+        <v>4443</v>
       </c>
       <c r="C6">
-        <v>16341</v>
+        <v>20838</v>
       </c>
       <c r="D6">
-        <v>16355</v>
+        <v>20852</v>
       </c>
       <c r="E6">
-        <v>16369</v>
+        <v>20866</v>
       </c>
       <c r="F6">
-        <v>16383</v>
+        <v>20880</v>
       </c>
       <c r="G6">
-        <v>16397</v>
+        <v>20894</v>
       </c>
       <c r="H6">
-        <v>16411</v>
+        <v>20908</v>
       </c>
       <c r="I6">
-        <v>16425</v>
+        <v>20922</v>
+      </c>
+      <c r="J6">
+        <v>20936</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -642,28 +660,31 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B7">
-        <v>3898</v>
+        <v>4444</v>
       </c>
       <c r="C7">
-        <v>16340</v>
+        <v>20837</v>
       </c>
       <c r="D7">
-        <v>16354</v>
+        <v>20851</v>
       </c>
       <c r="E7">
-        <v>16368</v>
+        <v>20865</v>
       </c>
       <c r="F7">
-        <v>16382</v>
+        <v>20879</v>
       </c>
       <c r="G7">
-        <v>16396</v>
+        <v>20893</v>
       </c>
       <c r="H7">
-        <v>16410</v>
+        <v>20907</v>
       </c>
       <c r="I7">
-        <v>16424</v>
+        <v>20921</v>
+      </c>
+      <c r="J7">
+        <v>20935</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -671,28 +692,31 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="B8">
-        <v>3899</v>
+        <v>4445</v>
       </c>
       <c r="C8">
-        <v>16339</v>
+        <v>20836</v>
       </c>
       <c r="D8">
-        <v>16353</v>
+        <v>20850</v>
       </c>
       <c r="E8">
-        <v>16367</v>
+        <v>20864</v>
       </c>
       <c r="F8">
-        <v>16381</v>
+        <v>20878</v>
       </c>
       <c r="G8">
-        <v>16395</v>
+        <v>20892</v>
       </c>
       <c r="H8">
-        <v>16409</v>
+        <v>20906</v>
       </c>
       <c r="I8">
-        <v>16423</v>
+        <v>20920</v>
+      </c>
+      <c r="J8">
+        <v>20934</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -700,28 +724,31 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="B9">
-        <v>3900</v>
+        <v>4446</v>
       </c>
       <c r="C9">
-        <v>16338</v>
+        <v>20835</v>
       </c>
       <c r="D9">
-        <v>16352</v>
+        <v>20849</v>
       </c>
       <c r="E9">
-        <v>16366</v>
+        <v>20863</v>
       </c>
       <c r="F9">
-        <v>16380</v>
+        <v>20877</v>
       </c>
       <c r="G9">
-        <v>16394</v>
+        <v>20891</v>
       </c>
       <c r="H9">
-        <v>16408</v>
+        <v>20905</v>
       </c>
       <c r="I9">
-        <v>16422</v>
+        <v>20919</v>
+      </c>
+      <c r="J9">
+        <v>20933</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -729,28 +756,31 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="B10">
-        <v>3901</v>
+        <v>4447</v>
       </c>
       <c r="C10">
-        <v>16337</v>
+        <v>20834</v>
       </c>
       <c r="D10">
-        <v>16351</v>
+        <v>20848</v>
       </c>
       <c r="E10">
-        <v>16365</v>
+        <v>20862</v>
       </c>
       <c r="F10">
-        <v>16379</v>
+        <v>20876</v>
       </c>
       <c r="G10">
-        <v>16393</v>
+        <v>20890</v>
       </c>
       <c r="H10">
-        <v>16407</v>
+        <v>20904</v>
       </c>
       <c r="I10">
-        <v>16421</v>
+        <v>20918</v>
+      </c>
+      <c r="J10">
+        <v>20932</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -758,28 +788,31 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="B11">
-        <v>3902</v>
+        <v>4448</v>
       </c>
       <c r="C11">
-        <v>16336</v>
+        <v>20833</v>
       </c>
       <c r="D11">
-        <v>16350</v>
+        <v>20847</v>
       </c>
       <c r="E11">
-        <v>16364</v>
+        <v>20861</v>
       </c>
       <c r="F11">
-        <v>16378</v>
+        <v>20875</v>
       </c>
       <c r="G11">
-        <v>16392</v>
+        <v>20889</v>
       </c>
       <c r="H11">
-        <v>16406</v>
+        <v>20903</v>
       </c>
       <c r="I11">
-        <v>16420</v>
+        <v>20917</v>
+      </c>
+      <c r="J11">
+        <v>20931</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -787,28 +820,31 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="B12">
-        <v>3903</v>
+        <v>4449</v>
       </c>
       <c r="C12">
-        <v>16335</v>
+        <v>20832</v>
       </c>
       <c r="D12">
-        <v>16349</v>
+        <v>20846</v>
       </c>
       <c r="E12">
-        <v>16363</v>
+        <v>20860</v>
       </c>
       <c r="F12">
-        <v>16377</v>
+        <v>20874</v>
       </c>
       <c r="G12">
-        <v>16391</v>
+        <v>20888</v>
       </c>
       <c r="H12">
-        <v>16405</v>
+        <v>20902</v>
       </c>
       <c r="I12">
-        <v>16419</v>
+        <v>20916</v>
+      </c>
+      <c r="J12">
+        <v>20930</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -816,28 +852,31 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="B13">
-        <v>3904</v>
+        <v>4450</v>
       </c>
       <c r="C13">
-        <v>16334</v>
+        <v>20831</v>
       </c>
       <c r="D13">
-        <v>16348</v>
+        <v>20845</v>
       </c>
       <c r="E13">
-        <v>16362</v>
+        <v>20859</v>
       </c>
       <c r="F13">
-        <v>16376</v>
+        <v>20873</v>
       </c>
       <c r="G13">
-        <v>16390</v>
+        <v>20887</v>
       </c>
       <c r="H13">
-        <v>16404</v>
+        <v>20901</v>
       </c>
       <c r="I13">
-        <v>16418</v>
+        <v>20915</v>
+      </c>
+      <c r="J13">
+        <v>20929</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -845,28 +884,31 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="B14">
-        <v>3905</v>
+        <v>4451</v>
       </c>
       <c r="C14">
-        <v>16333</v>
+        <v>20830</v>
       </c>
       <c r="D14">
-        <v>16347</v>
+        <v>20844</v>
       </c>
       <c r="E14">
-        <v>16361</v>
+        <v>20858</v>
       </c>
       <c r="F14">
-        <v>16375</v>
+        <v>20872</v>
       </c>
       <c r="G14">
-        <v>16389</v>
+        <v>20886</v>
       </c>
       <c r="H14">
-        <v>16403</v>
+        <v>20900</v>
       </c>
       <c r="I14">
-        <v>16417</v>
+        <v>20914</v>
+      </c>
+      <c r="J14">
+        <v>20928</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -874,28 +916,31 @@
         <v>0.88194444444444442</v>
       </c>
       <c r="B15">
-        <v>3906</v>
+        <v>4452</v>
       </c>
       <c r="C15">
-        <v>16332</v>
+        <v>20829</v>
       </c>
       <c r="D15">
-        <v>16346</v>
+        <v>20843</v>
       </c>
       <c r="E15">
-        <v>16360</v>
+        <v>20857</v>
       </c>
       <c r="F15">
-        <v>16374</v>
+        <v>20871</v>
       </c>
       <c r="G15">
-        <v>16388</v>
+        <v>20885</v>
       </c>
       <c r="H15">
-        <v>16402</v>
+        <v>20899</v>
       </c>
       <c r="I15">
-        <v>16416</v>
+        <v>20913</v>
+      </c>
+      <c r="J15">
+        <v>20927</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -929,25 +974,25 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B20" s="3">
-        <v>3549</v>
+        <v>4480</v>
       </c>
       <c r="C20" s="3">
-        <v>15537</v>
+        <v>21052</v>
       </c>
       <c r="D20" s="3">
-        <v>15551</v>
+        <v>21066</v>
       </c>
       <c r="E20" s="3">
-        <v>15565</v>
+        <v>21080</v>
       </c>
       <c r="F20" s="3">
-        <v>15579</v>
+        <v>21094</v>
       </c>
       <c r="G20" s="3">
-        <v>15593</v>
+        <v>21108</v>
       </c>
       <c r="H20" s="3">
-        <v>15607</v>
+        <v>21122</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -955,25 +1000,25 @@
         <v>0.375</v>
       </c>
       <c r="B21" s="3">
-        <v>3550</v>
+        <v>4481</v>
       </c>
       <c r="C21" s="3">
-        <v>15536</v>
+        <v>21051</v>
       </c>
       <c r="D21" s="3">
-        <v>15550</v>
+        <v>21065</v>
       </c>
       <c r="E21" s="3">
-        <v>15564</v>
+        <v>21079</v>
       </c>
       <c r="F21" s="3">
-        <v>15578</v>
+        <v>21093</v>
       </c>
       <c r="G21" s="3">
-        <v>15592</v>
+        <v>21107</v>
       </c>
       <c r="H21" s="3">
-        <v>15606</v>
+        <v>21121</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -981,25 +1026,25 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B22" s="3">
-        <v>3551</v>
+        <v>4482</v>
       </c>
       <c r="C22" s="3">
-        <v>15535</v>
+        <v>21050</v>
       </c>
       <c r="D22" s="3">
-        <v>15549</v>
+        <v>21064</v>
       </c>
       <c r="E22" s="3">
-        <v>15563</v>
+        <v>21078</v>
       </c>
       <c r="F22" s="3">
-        <v>15577</v>
+        <v>21092</v>
       </c>
       <c r="G22" s="3">
-        <v>15591</v>
+        <v>21106</v>
       </c>
       <c r="H22" s="3">
-        <v>15605</v>
+        <v>21120</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1007,25 +1052,25 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B23" s="3">
-        <v>3552</v>
+        <v>4483</v>
       </c>
       <c r="C23" s="3">
-        <v>15534</v>
+        <v>21049</v>
       </c>
       <c r="D23" s="3">
-        <v>15548</v>
+        <v>21063</v>
       </c>
       <c r="E23" s="3">
-        <v>15562</v>
+        <v>21077</v>
       </c>
       <c r="F23" s="3">
-        <v>15576</v>
+        <v>21091</v>
       </c>
       <c r="G23" s="3">
-        <v>15590</v>
+        <v>21105</v>
       </c>
       <c r="H23" s="3">
-        <v>15604</v>
+        <v>21119</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -1033,25 +1078,25 @@
         <v>0.5</v>
       </c>
       <c r="B24" s="3">
-        <v>3553</v>
+        <v>4484</v>
       </c>
       <c r="C24" s="3">
-        <v>15533</v>
+        <v>21048</v>
       </c>
       <c r="D24" s="3">
-        <v>15547</v>
+        <v>21062</v>
       </c>
       <c r="E24" s="3">
-        <v>15561</v>
+        <v>21076</v>
       </c>
       <c r="F24" s="3">
-        <v>15575</v>
+        <v>21090</v>
       </c>
       <c r="G24" s="3">
-        <v>15589</v>
+        <v>21104</v>
       </c>
       <c r="H24" s="3">
-        <v>15603</v>
+        <v>21118</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -1059,25 +1104,25 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="B25" s="3">
-        <v>3554</v>
+        <v>4485</v>
       </c>
       <c r="C25" s="3">
-        <v>15532</v>
+        <v>21047</v>
       </c>
       <c r="D25" s="3">
-        <v>15546</v>
+        <v>21061</v>
       </c>
       <c r="E25" s="3">
-        <v>15560</v>
+        <v>21075</v>
       </c>
       <c r="F25" s="3">
-        <v>15574</v>
+        <v>21089</v>
       </c>
       <c r="G25" s="3">
-        <v>15588</v>
+        <v>21103</v>
       </c>
       <c r="H25" s="3">
-        <v>15602</v>
+        <v>21117</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -1085,25 +1130,25 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="B26" s="3">
-        <v>3555</v>
+        <v>4486</v>
       </c>
       <c r="C26" s="3">
-        <v>15531</v>
+        <v>21046</v>
       </c>
       <c r="D26" s="3">
-        <v>15545</v>
+        <v>21060</v>
       </c>
       <c r="E26" s="3">
-        <v>15559</v>
+        <v>21074</v>
       </c>
       <c r="F26" s="3">
-        <v>15573</v>
+        <v>21088</v>
       </c>
       <c r="G26" s="3">
-        <v>15587</v>
+        <v>21102</v>
       </c>
       <c r="H26" s="3">
-        <v>15601</v>
+        <v>21116</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -1111,25 +1156,25 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="B27" s="3">
-        <v>3556</v>
+        <v>4487</v>
       </c>
       <c r="C27" s="3">
-        <v>15530</v>
+        <v>21045</v>
       </c>
       <c r="D27" s="3">
-        <v>15544</v>
+        <v>21059</v>
       </c>
       <c r="E27" s="3">
-        <v>15558</v>
+        <v>21073</v>
       </c>
       <c r="F27" s="3">
-        <v>15572</v>
+        <v>21087</v>
       </c>
       <c r="G27" s="3">
-        <v>15586</v>
+        <v>21101</v>
       </c>
       <c r="H27" s="3">
-        <v>15600</v>
+        <v>21115</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -1137,25 +1182,25 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="B28" s="3">
-        <v>3557</v>
+        <v>4488</v>
       </c>
       <c r="C28" s="3">
-        <v>15529</v>
+        <v>21044</v>
       </c>
       <c r="D28" s="3">
-        <v>15543</v>
+        <v>21058</v>
       </c>
       <c r="E28" s="3">
-        <v>15557</v>
+        <v>21072</v>
       </c>
       <c r="F28" s="3">
-        <v>15571</v>
+        <v>21086</v>
       </c>
       <c r="G28" s="3">
-        <v>15585</v>
+        <v>21100</v>
       </c>
       <c r="H28" s="3">
-        <v>15599</v>
+        <v>21114</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -1163,25 +1208,25 @@
         <v>0.71527777777777801</v>
       </c>
       <c r="B29" s="3">
-        <v>3558</v>
+        <v>4489</v>
       </c>
       <c r="C29" s="3">
-        <v>15528</v>
+        <v>21043</v>
       </c>
       <c r="D29" s="3">
-        <v>15542</v>
+        <v>21057</v>
       </c>
       <c r="E29" s="3">
-        <v>15556</v>
+        <v>21071</v>
       </c>
       <c r="F29" s="3">
-        <v>15570</v>
+        <v>21085</v>
       </c>
       <c r="G29" s="3">
-        <v>15584</v>
+        <v>21099</v>
       </c>
       <c r="H29" s="3">
-        <v>15598</v>
+        <v>21113</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -1189,25 +1234,25 @@
         <v>0.75694444444444497</v>
       </c>
       <c r="B30" s="3">
-        <v>3559</v>
+        <v>4490</v>
       </c>
       <c r="C30" s="3">
-        <v>15527</v>
+        <v>21042</v>
       </c>
       <c r="D30" s="3">
-        <v>15541</v>
+        <v>21056</v>
       </c>
       <c r="E30" s="3">
-        <v>15555</v>
+        <v>21070</v>
       </c>
       <c r="F30" s="3">
-        <v>15569</v>
+        <v>21084</v>
       </c>
       <c r="G30" s="3">
-        <v>15583</v>
+        <v>21098</v>
       </c>
       <c r="H30" s="3">
-        <v>15597</v>
+        <v>21112</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -1215,25 +1260,25 @@
         <v>0.79861111111111105</v>
       </c>
       <c r="B31" s="3">
-        <v>3560</v>
+        <v>4491</v>
       </c>
       <c r="C31" s="3">
-        <v>15526</v>
+        <v>21041</v>
       </c>
       <c r="D31" s="3">
-        <v>15540</v>
+        <v>21055</v>
       </c>
       <c r="E31" s="3">
-        <v>15554</v>
+        <v>21069</v>
       </c>
       <c r="F31" s="3">
-        <v>15568</v>
+        <v>21083</v>
       </c>
       <c r="G31" s="3">
-        <v>15582</v>
+        <v>21097</v>
       </c>
       <c r="H31" s="3">
-        <v>15596</v>
+        <v>21111</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -1241,25 +1286,25 @@
         <v>0.84027777777777801</v>
       </c>
       <c r="B32" s="3">
-        <v>3561</v>
+        <v>4492</v>
       </c>
       <c r="C32" s="3">
-        <v>15525</v>
+        <v>21040</v>
       </c>
       <c r="D32" s="3">
-        <v>15539</v>
+        <v>21054</v>
       </c>
       <c r="E32" s="3">
-        <v>15553</v>
+        <v>21068</v>
       </c>
       <c r="F32" s="3">
-        <v>15567</v>
+        <v>21082</v>
       </c>
       <c r="G32" s="3">
-        <v>15581</v>
+        <v>21096</v>
       </c>
       <c r="H32" s="3">
-        <v>15595</v>
+        <v>21110</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -1267,25 +1312,25 @@
         <v>0.88194444444444398</v>
       </c>
       <c r="B33" s="3">
-        <v>3562</v>
+        <v>4493</v>
       </c>
       <c r="C33" s="3">
-        <v>15524</v>
+        <v>21039</v>
       </c>
       <c r="D33" s="3">
-        <v>15538</v>
+        <v>21053</v>
       </c>
       <c r="E33" s="3">
-        <v>15552</v>
+        <v>21067</v>
       </c>
       <c r="F33" s="3">
-        <v>15566</v>
+        <v>21081</v>
       </c>
       <c r="G33" s="3">
-        <v>15580</v>
+        <v>21095</v>
       </c>
       <c r="H33" s="3">
-        <v>15594</v>
+        <v>21109</v>
       </c>
     </row>
   </sheetData>
